--- a/documentation/Individual Accounting.xlsx
+++ b/documentation/Individual Accounting.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="199">
   <si>
     <t>Team members Name</t>
   </si>
@@ -268,7 +268,7 @@
     <t>Created in the Game class and used by the game world singleton class.</t>
   </si>
   <si>
-    <t>7 Days</t>
+    <t>12 Days</t>
   </si>
   <si>
     <t>7 days</t>
@@ -286,6 +286,9 @@
     <t>Called by the game class to check for collisions.</t>
   </si>
   <si>
+    <t>10 days</t>
+  </si>
+  <si>
     <t>TemporaryPlayerObject.h and cpp</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
     <t>OgreGraphics</t>
   </si>
   <si>
+    <t>Tim, Hamish and Arran</t>
+  </si>
+  <si>
     <t>Game</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>1 day</t>
   </si>
   <si>
+    <t>Tim and Arran</t>
+  </si>
+  <si>
     <t>GenericObject</t>
   </si>
   <si>
@@ -392,6 +401,213 @@
   </si>
   <si>
     <t>Test scene used to first test the graphics engine.</t>
+  </si>
+  <si>
+    <t>Added by(not written) Arran</t>
+  </si>
+  <si>
+    <t>DebugDrawerOG</t>
+  </si>
+  <si>
+    <t>Debug drawer for Bullet Physics</t>
+  </si>
+  <si>
+    <t>CollisionWorldSingleton</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>MapNode</t>
+  </si>
+  <si>
+    <t>Node used in pathing</t>
+  </si>
+  <si>
+    <t>NodeContainerSingleton and WorldMap</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>NodeContainerSingleton</t>
+  </si>
+  <si>
+    <t>Contains the pathing world</t>
+  </si>
+  <si>
+    <t>WorldMap</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>Handles pathfinding</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>ItemStore</t>
+  </si>
+  <si>
+    <t>Handles Searching for Object affordances</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>MicroPather</t>
+  </si>
+  <si>
+    <t>A* Solver from Grinning Lizard</t>
+  </si>
+  <si>
+    <t>20 minutes </t>
+  </si>
+  <si>
+    <t>1 hour 30 minutes</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>abstract class for actions</t>
+  </si>
+  <si>
+    <t>Action manager, goal, npc</t>
+  </si>
+  <si>
+    <t>ActionManager</t>
+  </si>
+  <si>
+    <t>action manager</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
+    <t>AIManager</t>
+  </si>
+  <si>
+    <t>ai manager</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>mood manager</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>EasyGoing</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>abstract class for emotions</t>
+  </si>
+  <si>
+    <t>emotion manager, npc</t>
+  </si>
+  <si>
+    <t>EmotionManager</t>
+  </si>
+  <si>
+    <t>emotion manager</t>
+  </si>
+  <si>
+    <t>EnumSpace</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>emotion, mood, goal, npc, manager classes</t>
+  </si>
+  <si>
+    <t>FunLoving</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>abstract class for goals</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>emotion</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>abstract class for moods</t>
+  </si>
+  <si>
+    <t>mood manager, npc</t>
+  </si>
+  <si>
+    <t>MoodManager</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>NPC main processing class</t>
+  </si>
+  <si>
+    <t>7day</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Sit</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>goal, action manager</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Studious</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>abstract class for traits</t>
+  </si>
+  <si>
+    <t>UseComputer</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1385,7 @@
         <v>90</v>
       </c>
       <c t="s" r="H30">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c t="s" r="I30">
         <v>86</v>
@@ -1180,282 +1396,1033 @@
         <v>80</v>
       </c>
       <c t="s" r="B31">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="C31">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c t="s" r="F31">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="G31">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="H31">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="I31">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B32">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C32">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c t="s" r="F32">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="G32">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="H32">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="I32">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c t="s" r="B33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="C33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>189</v>
       </c>
       <c t="s" r="F33">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="H33">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="I33">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c t="s" r="B34">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="C34">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c t="s" r="F34">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="G34">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="H34">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="I34">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c t="s" r="B35">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="C35">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>68</v>
       </c>
       <c t="s" r="F35">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="G35">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="H35">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="I35">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c t="s" r="A36">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B36">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="C36">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>28</v>
       </c>
       <c t="s" r="F36">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="G36">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="H36">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="I36">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B37">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="C37">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D37">
         <v>629</v>
       </c>
       <c t="s" r="F37">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="G37">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="H37">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="I37">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B38">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="C38">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38">
         <v>245</v>
       </c>
       <c t="s" r="F38">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="G38">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="H38">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="I38">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B39">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="C39">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39">
         <v>63</v>
       </c>
       <c t="s" r="F39">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="G39">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="H39">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="I39">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c t="s" r="A40">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B40">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="C40">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40">
         <v>32</v>
       </c>
       <c t="s" r="F40">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="G40">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="H40">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="I40">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="B41">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="C41">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41">
         <v>136</v>
       </c>
       <c t="s" r="F41">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="G41">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="H41">
+        <v>105</v>
+      </c>
+      <c t="s" r="I41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" r="A42">
+        <v>130</v>
+      </c>
+      <c t="s" r="B42">
+        <v>131</v>
+      </c>
+      <c t="s" r="C42">
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>138</v>
+      </c>
+      <c t="s" r="F42">
+        <v>132</v>
+      </c>
+      <c t="s" r="G42">
+        <v>133</v>
+      </c>
+      <c t="s" r="H42">
+        <v>134</v>
+      </c>
+      <c t="s" r="I42">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" r="A43">
+        <v>80</v>
+      </c>
+      <c t="s" r="B43">
+        <v>135</v>
+      </c>
+      <c t="s" r="C43">
+        <v>135</v>
+      </c>
+      <c r="D43">
+        <v>36</v>
+      </c>
+      <c t="s" r="F43">
+        <v>136</v>
+      </c>
+      <c t="s" r="G43">
+        <v>137</v>
+      </c>
+      <c t="s" r="H43">
+        <v>138</v>
+      </c>
+      <c t="s" r="I43">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="s" r="A44">
+        <v>80</v>
+      </c>
+      <c t="s" r="B44">
+        <v>139</v>
+      </c>
+      <c t="s" r="C44">
+        <v>139</v>
+      </c>
+      <c r="D44">
+        <v>122</v>
+      </c>
+      <c t="s" r="F44">
+        <v>140</v>
+      </c>
+      <c t="s" r="G44">
+        <v>141</v>
+      </c>
+      <c t="s" r="H44">
+        <v>142</v>
+      </c>
+      <c t="s" r="I44">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="s" r="A45">
+        <v>80</v>
+      </c>
+      <c t="s" r="B45">
+        <v>141</v>
+      </c>
+      <c t="s" r="C45">
+        <v>141</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c t="s" r="F45">
+        <v>143</v>
+      </c>
+      <c t="s" r="G45">
         <v>103</v>
       </c>
-      <c t="s" r="I41">
-        <v>103</v>
+      <c t="s" r="H45">
+        <v>144</v>
+      </c>
+      <c t="s" r="I45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="s" r="A46">
+        <v>80</v>
+      </c>
+      <c t="s" r="B46">
+        <v>145</v>
+      </c>
+      <c t="s" r="C46">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>150</v>
+      </c>
+      <c t="s" r="F46">
+        <v>146</v>
+      </c>
+      <c t="s" r="G46">
+        <v>147</v>
+      </c>
+      <c t="s" r="H46">
+        <v>144</v>
+      </c>
+      <c t="s" r="I46">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47">
+      <c t="s" r="A47">
+        <v>130</v>
+      </c>
+      <c t="s" r="B47">
+        <v>148</v>
+      </c>
+      <c t="s" r="C47">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>840</v>
+      </c>
+      <c t="s" r="F47">
+        <v>149</v>
+      </c>
+      <c t="s" r="G47">
+        <v>141</v>
+      </c>
+      <c t="s" r="H47">
+        <v>150</v>
+      </c>
+      <c t="s" r="I47">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48">
+      <c t="s" r="A48">
+        <v>9</v>
+      </c>
+      <c t="s" r="B48">
+        <v>152</v>
+      </c>
+      <c t="s" r="C48">
+        <v>152</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c t="s" r="F48">
+        <v>153</v>
+      </c>
+      <c t="s" r="G48">
+        <v>154</v>
+      </c>
+      <c t="s" r="H48">
+        <v>105</v>
+      </c>
+      <c t="s" r="I48">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c t="s" r="A49">
+        <v>9</v>
+      </c>
+      <c t="s" r="B49">
+        <v>155</v>
+      </c>
+      <c t="s" r="C49">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>67</v>
+      </c>
+      <c t="s" r="F49">
+        <v>156</v>
+      </c>
+      <c t="s" r="G49">
+        <v>157</v>
+      </c>
+      <c t="s" r="H49">
+        <v>105</v>
+      </c>
+      <c t="s" r="I49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="s" r="A50">
+        <v>9</v>
+      </c>
+      <c t="s" r="B50">
+        <v>158</v>
+      </c>
+      <c t="s" r="C50">
+        <v>158</v>
+      </c>
+      <c r="D50">
+        <v>43</v>
+      </c>
+      <c t="s" r="F50">
+        <v>159</v>
+      </c>
+      <c t="s" r="G50">
+        <v>157</v>
+      </c>
+      <c t="s" r="H50">
+        <v>105</v>
+      </c>
+      <c t="s" r="I50">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c t="s" r="A51">
+        <v>9</v>
+      </c>
+      <c t="s" r="B51">
+        <v>160</v>
+      </c>
+      <c t="s" r="C51">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>45</v>
+      </c>
+      <c t="s" r="F51">
+        <v>161</v>
+      </c>
+      <c t="s" r="G51">
+        <v>162</v>
+      </c>
+      <c t="s" r="H51">
+        <v>163</v>
+      </c>
+      <c t="s" r="I51">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="s" r="A52">
+        <v>9</v>
+      </c>
+      <c t="s" r="B52">
+        <v>164</v>
+      </c>
+      <c t="s" r="C52">
+        <v>164</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c t="s" r="F52">
+        <v>165</v>
+      </c>
+      <c t="s" r="G52">
+        <v>157</v>
+      </c>
+      <c t="s" r="H52">
+        <v>163</v>
+      </c>
+      <c t="s" r="I52">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="s" r="A53">
+        <v>9</v>
+      </c>
+      <c t="s" r="B53">
+        <v>166</v>
+      </c>
+      <c t="s" r="C53">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c t="s" r="F53">
+        <v>167</v>
+      </c>
+      <c t="s" r="G53">
+        <v>168</v>
+      </c>
+      <c t="s" r="H53">
+        <v>163</v>
+      </c>
+      <c t="s" r="I53">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="s" r="A54">
+        <v>9</v>
+      </c>
+      <c t="s" r="B54">
+        <v>169</v>
+      </c>
+      <c t="s" r="C54">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>47</v>
+      </c>
+      <c t="s" r="F54">
+        <v>170</v>
+      </c>
+      <c t="s" r="G54">
+        <v>157</v>
+      </c>
+      <c t="s" r="H54">
+        <v>105</v>
+      </c>
+      <c t="s" r="I54">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="s" r="A55">
+        <v>9</v>
+      </c>
+      <c t="s" r="B55">
+        <v>171</v>
+      </c>
+      <c t="s" r="C55">
+        <v>171</v>
+      </c>
+      <c r="D55">
+        <v>90</v>
+      </c>
+      <c t="s" r="F55">
+        <v>172</v>
+      </c>
+      <c t="s" r="G55">
+        <v>173</v>
+      </c>
+      <c t="s" r="H55">
+        <v>163</v>
+      </c>
+      <c t="s" r="I55">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="s" r="A56">
+        <v>9</v>
+      </c>
+      <c t="s" r="B56">
+        <v>174</v>
+      </c>
+      <c t="s" r="C56">
+        <v>174</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c t="s" r="F56">
+        <v>165</v>
+      </c>
+      <c t="s" r="G56">
+        <v>157</v>
+      </c>
+      <c t="s" r="H56">
+        <v>163</v>
+      </c>
+      <c t="s" r="I56">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="s" r="A57">
+        <v>9</v>
+      </c>
+      <c t="s" r="B57">
+        <v>175</v>
+      </c>
+      <c t="s" r="C57">
+        <v>175</v>
+      </c>
+      <c r="D57">
+        <v>122</v>
+      </c>
+      <c t="s" r="F57">
+        <v>176</v>
+      </c>
+      <c t="s" r="G57">
+        <v>157</v>
+      </c>
+      <c t="s" r="H57">
+        <v>163</v>
+      </c>
+      <c t="s" r="I57">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58">
+      <c t="s" r="A58">
+        <v>9</v>
+      </c>
+      <c t="s" r="B58">
+        <v>177</v>
+      </c>
+      <c t="s" r="C58">
+        <v>177</v>
+      </c>
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c t="s" r="F58">
+        <v>161</v>
+      </c>
+      <c t="s" r="G58">
+        <v>162</v>
+      </c>
+      <c t="s" r="H58">
+        <v>163</v>
+      </c>
+      <c t="s" r="I58">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="s" r="A59">
+        <v>9</v>
+      </c>
+      <c t="s" r="B59">
+        <v>178</v>
+      </c>
+      <c t="s" r="C59">
+        <v>178</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+      <c t="s" r="F59">
+        <v>179</v>
+      </c>
+      <c t="s" r="G59">
+        <v>170</v>
+      </c>
+      <c t="s" r="H59">
+        <v>163</v>
+      </c>
+      <c t="s" r="I59">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60">
+      <c t="s" r="A60">
+        <v>9</v>
+      </c>
+      <c t="s" r="B60">
+        <v>180</v>
+      </c>
+      <c t="s" r="C60">
+        <v>180</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c t="s" r="F60">
+        <v>181</v>
+      </c>
+      <c t="s" r="G60">
+        <v>182</v>
+      </c>
+      <c t="s" r="H60">
+        <v>163</v>
+      </c>
+      <c t="s" r="I60">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61">
+      <c t="s" r="A61">
+        <v>9</v>
+      </c>
+      <c t="s" r="B61">
+        <v>183</v>
+      </c>
+      <c t="s" r="C61">
+        <v>183</v>
+      </c>
+      <c r="D61">
+        <v>70</v>
+      </c>
+      <c t="s" r="F61">
+        <v>162</v>
+      </c>
+      <c t="s" r="G61">
+        <v>157</v>
+      </c>
+      <c t="s" r="H61">
+        <v>105</v>
+      </c>
+      <c t="s" r="I61">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c t="s" r="A62">
+        <v>9</v>
+      </c>
+      <c t="s" r="B62">
+        <v>184</v>
+      </c>
+      <c t="s" r="C62">
+        <v>184</v>
+      </c>
+      <c r="D62">
+        <v>45</v>
+      </c>
+      <c t="s" r="F62">
+        <v>179</v>
+      </c>
+      <c t="s" r="G62">
+        <v>170</v>
+      </c>
+      <c t="s" r="H62">
+        <v>163</v>
+      </c>
+      <c t="s" r="I62">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63">
+      <c t="s" r="A63">
+        <v>9</v>
+      </c>
+      <c t="s" r="B63">
+        <v>147</v>
+      </c>
+      <c t="s" r="C63">
+        <v>147</v>
+      </c>
+      <c r="D63">
+        <v>343</v>
+      </c>
+      <c t="s" r="F63">
+        <v>185</v>
+      </c>
+      <c t="s" r="H63">
+        <v>186</v>
+      </c>
+      <c t="s" r="I63">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64">
+      <c t="s" r="A64">
+        <v>9</v>
+      </c>
+      <c t="s" r="B64">
+        <v>187</v>
+      </c>
+      <c t="s" r="C64">
+        <v>187</v>
+      </c>
+      <c r="D64">
+        <v>27</v>
+      </c>
+      <c t="s" r="F64">
+        <v>188</v>
+      </c>
+      <c t="s" r="G64">
+        <v>157</v>
+      </c>
+      <c t="s" r="H64">
+        <v>163</v>
+      </c>
+      <c t="s" r="I64">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65">
+      <c t="s" r="A65">
+        <v>9</v>
+      </c>
+      <c t="s" r="B65">
+        <v>189</v>
+      </c>
+      <c t="s" r="C65">
+        <v>189</v>
+      </c>
+      <c r="D65">
+        <v>45</v>
+      </c>
+      <c t="s" r="F65">
+        <v>179</v>
+      </c>
+      <c t="s" r="G65">
+        <v>170</v>
+      </c>
+      <c t="s" r="H65">
+        <v>163</v>
+      </c>
+      <c t="s" r="I65">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66">
+      <c t="s" r="A66">
+        <v>9</v>
+      </c>
+      <c t="s" r="B66">
+        <v>190</v>
+      </c>
+      <c t="s" r="C66">
+        <v>190</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c t="s" r="F66">
+        <v>191</v>
+      </c>
+      <c t="s" r="G66">
+        <v>192</v>
+      </c>
+      <c t="s" r="H66">
+        <v>193</v>
+      </c>
+      <c t="s" r="I66">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67">
+      <c t="s" r="A67">
+        <v>9</v>
+      </c>
+      <c t="s" r="B67">
+        <v>194</v>
+      </c>
+      <c t="s" r="C67">
+        <v>194</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c t="s" r="F67">
+        <v>165</v>
+      </c>
+      <c t="s" r="G67">
+        <v>157</v>
+      </c>
+      <c t="s" r="H67">
+        <v>163</v>
+      </c>
+      <c t="s" r="I67">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68">
+      <c t="s" r="A68">
+        <v>9</v>
+      </c>
+      <c t="s" r="B68">
+        <v>195</v>
+      </c>
+      <c t="s" r="C68">
+        <v>195</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c t="s" r="F68">
+        <v>196</v>
+      </c>
+      <c t="s" r="G68">
+        <v>157</v>
+      </c>
+      <c t="s" r="H68">
+        <v>163</v>
+      </c>
+      <c t="s" r="I68">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c t="s" r="A69">
+        <v>9</v>
+      </c>
+      <c t="s" r="B69">
+        <v>197</v>
+      </c>
+      <c t="s" r="C69">
+        <v>197</v>
+      </c>
+      <c r="D69">
+        <v>18</v>
+      </c>
+      <c t="s" r="F69">
+        <v>191</v>
+      </c>
+      <c t="s" r="G69">
+        <v>192</v>
+      </c>
+      <c t="s" r="H69">
+        <v>193</v>
+      </c>
+      <c t="s" r="I69">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="s" r="A70">
+        <v>9</v>
+      </c>
+      <c t="s" r="B70">
+        <v>198</v>
+      </c>
+      <c t="s" r="C70">
+        <v>198</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c t="s" r="F70">
+        <v>188</v>
+      </c>
+      <c t="s" r="G70">
+        <v>188</v>
+      </c>
+      <c t="s" r="H70">
+        <v>163</v>
+      </c>
+      <c t="s" r="I70">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Individual Accounting.xlsx
+++ b/documentation/Individual Accounting.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy\Desktop\ICT312\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4755"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="208">
   <si>
     <t>Team members Name</t>
   </si>
@@ -118,7 +126,7 @@
     <t>CurvedSofa.mesh</t>
   </si>
   <si>
-    <t>Curved Sofa </t>
+    <t>Curved Sofa</t>
   </si>
   <si>
     <t>Function name is usually class::method</t>
@@ -463,7 +471,7 @@
     <t>A* Solver from Grinning Lizard</t>
   </si>
   <si>
-    <t>20 minutes </t>
+    <t>20 minutes</t>
   </si>
   <si>
     <t>1 hour 30 minutes</t>
@@ -608,19 +616,42 @@
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>SceneLoader</t>
+  </si>
+  <si>
+    <t>RigidBodyObject</t>
+  </si>
+  <si>
+    <t>Resolving collision</t>
+  </si>
+  <si>
+    <t>Too long</t>
+  </si>
+  <si>
+    <t>Loading the scene</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>For physics objects</t>
+  </si>
+  <si>
+    <t>Tim, Arran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -630,9 +661,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -645,1786 +674,2140 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
-        <v>9</v>
-      </c>
-      <c t="s" r="B2">
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G2">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H2">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I2">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
-        <v>9</v>
-      </c>
-      <c t="s" r="B3">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G3">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H3">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I3">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
-        <v>9</v>
-      </c>
-      <c t="s" r="B4">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="F4">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G4">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H4">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I4">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="L4">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
-        <v>9</v>
-      </c>
-      <c t="s" r="B5">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G5">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H5">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I5">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="L5">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
-        <v>9</v>
-      </c>
-      <c t="s" r="B6">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="F6">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G6">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H6">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I6">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="L6">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" r="A7">
-        <v>9</v>
-      </c>
-      <c t="s" r="B7">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="F7">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G7">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H7">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I7">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="L7">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" r="A8">
-        <v>9</v>
-      </c>
-      <c t="s" r="B8">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="F8">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G8">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H8">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I8">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="L8">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" r="A9">
-        <v>9</v>
-      </c>
-      <c t="s" r="B9">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="F9">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G9">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H9">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I9">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="L9">
+      <c r="L9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" r="A10">
-        <v>9</v>
-      </c>
-      <c t="s" r="B10">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="F10">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G10">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H10">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I10">
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="L10">
+      <c r="L10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" r="A11">
-        <v>9</v>
-      </c>
-      <c t="s" r="B11">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="C11">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="F11">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G11">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H11">
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I11">
+      <c r="I11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" r="A12">
-        <v>9</v>
-      </c>
-      <c t="s" r="B12">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="F12">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G12">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H12">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I12">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c t="s" r="A13">
-        <v>9</v>
-      </c>
-      <c t="s" r="B13">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="C13">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="F13">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G13">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H13">
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I13">
+      <c r="I13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c t="s" r="A14">
-        <v>9</v>
-      </c>
-      <c t="s" r="B14">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="C14">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="F14">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G14">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H14">
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I14">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" r="A15">
-        <v>9</v>
-      </c>
-      <c t="s" r="B15">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="F15">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G15">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H15">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I15">
+      <c r="I15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" r="A16">
-        <v>9</v>
-      </c>
-      <c t="s" r="B16">
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="C16">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="F16">
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G16">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H16">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I16">
+      <c r="I16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" r="A17">
-        <v>9</v>
-      </c>
-      <c t="s" r="B17">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="C17">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="F17">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G17">
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H17">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I17">
+      <c r="I17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18">
-      <c t="s" r="A18">
-        <v>9</v>
-      </c>
-      <c t="s" r="B18">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="C18">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="F18">
+      <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G18">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H18">
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I18">
+      <c r="I18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c t="s" r="A19">
-        <v>9</v>
-      </c>
-      <c t="s" r="B19">
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C19">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="F19">
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G19">
+      <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H19">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I19">
+      <c r="I19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c t="s" r="A20">
-        <v>9</v>
-      </c>
-      <c t="s" r="B20">
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="F20">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G20">
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H20">
+      <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I20">
+      <c r="I20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" r="A21">
-        <v>9</v>
-      </c>
-      <c t="s" r="B21">
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="F21">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G21">
+      <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H21">
+      <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I21">
+      <c r="I21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22">
-      <c t="s" r="A22">
-        <v>9</v>
-      </c>
-      <c t="s" r="B22">
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="F22">
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G22">
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H22">
+      <c r="H22" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I22">
+      <c r="I22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23">
-      <c t="s" r="A23">
-        <v>9</v>
-      </c>
-      <c t="s" r="B23">
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="C23">
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="F23">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G23">
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H23">
+      <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I23">
+      <c r="I23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24">
-      <c t="s" r="A24">
-        <v>9</v>
-      </c>
-      <c t="s" r="B24">
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="C24">
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="F24">
+      <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G24">
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H24">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I24">
+      <c r="I24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
-      <c t="s" r="A25">
-        <v>9</v>
-      </c>
-      <c t="s" r="B25">
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="C25">
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="F25">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G25">
+      <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H25">
+      <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I25">
+      <c r="I25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
-      <c t="s" r="A26">
-        <v>9</v>
-      </c>
-      <c t="s" r="B26">
+    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="F26">
+      <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G26">
+      <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H26">
+      <c r="H26" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I26">
+      <c r="I26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c t="s" r="A27">
-        <v>9</v>
-      </c>
-      <c t="s" r="B27">
+    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="F27">
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G27">
+      <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H27">
+      <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I27">
+      <c r="I27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28">
-      <c t="s" r="A28">
-        <v>9</v>
-      </c>
-      <c t="s" r="B28">
+    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="C28">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="F28">
+      <c r="F28" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="G28">
+      <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="H28">
+      <c r="H28" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="I28">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29">
-      <c t="s" r="A29">
+    <row r="29" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B29">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="C29">
+      <c r="C29" t="s">
         <v>82</v>
       </c>
       <c r="D29">
         <v>110</v>
       </c>
-      <c t="s" r="F29">
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c t="s" r="G29">
+      <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="H29">
+      <c r="H29" t="s">
         <v>85</v>
       </c>
-      <c t="s" r="I29">
+      <c r="I29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30">
-      <c t="s" r="A30">
+    <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c t="s" r="C30">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
-      <c t="s" r="F30">
+      <c r="F30" t="s">
         <v>89</v>
       </c>
-      <c t="s" r="G30">
+      <c r="G30" t="s">
         <v>90</v>
       </c>
-      <c t="s" r="H30">
+      <c r="H30" t="s">
         <v>91</v>
       </c>
-      <c t="s" r="I30">
+      <c r="I30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31">
-      <c t="s" r="A31">
+    <row r="31" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c t="s" r="C31">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
-      <c t="s" r="F31">
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="G31">
+      <c r="G31" t="s">
         <v>95</v>
       </c>
-      <c t="s" r="H31">
+      <c r="H31" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="I31">
+      <c r="I31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32">
-      <c t="s" r="A32">
+    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="C32">
+      <c r="C32" t="s">
         <v>99</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
-      <c t="s" r="F32">
+      <c r="F32" t="s">
         <v>100</v>
       </c>
-      <c t="s" r="G32">
+      <c r="G32" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="H32">
+      <c r="H32" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="I32">
+      <c r="I32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33">
-      <c t="s" r="A33">
+    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="C33">
+      <c r="C33" t="s">
         <v>103</v>
       </c>
       <c r="D33">
         <v>189</v>
       </c>
-      <c t="s" r="F33">
+      <c r="F33" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="H33">
+      <c r="H33" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I33">
+      <c r="I33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34">
-      <c t="s" r="A34">
+    <row r="34" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="B34">
+      <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c t="s" r="C34">
+      <c r="C34" t="s">
         <v>107</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
-      <c t="s" r="F34">
+      <c r="F34" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="G34">
+      <c r="G34" t="s">
         <v>109</v>
       </c>
-      <c t="s" r="H34">
+      <c r="H34" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="I34">
+      <c r="I34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35">
-      <c t="s" r="A35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>111</v>
       </c>
       <c r="D35">
         <v>68</v>
       </c>
-      <c t="s" r="F35">
+      <c r="F35" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="G35">
+      <c r="G35" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="H35">
+      <c r="H35" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="I35">
+      <c r="I35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36">
-      <c t="s" r="A36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>113</v>
       </c>
       <c r="D36">
         <v>28</v>
       </c>
-      <c t="s" r="F36">
+      <c r="F36" t="s">
         <v>115</v>
       </c>
-      <c t="s" r="G36">
+      <c r="G36" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="H36">
+      <c r="H36" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="I36">
+      <c r="I36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37">
-      <c t="s" r="A37">
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
       <c r="D37">
         <v>629</v>
       </c>
-      <c t="s" r="F37">
+      <c r="F37" t="s">
         <v>118</v>
       </c>
-      <c t="s" r="G37">
+      <c r="G37" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="H37">
+      <c r="H37" t="s">
         <v>119</v>
       </c>
-      <c t="s" r="I37">
+      <c r="I37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38">
-      <c t="s" r="A38">
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>101</v>
       </c>
       <c r="D38">
         <v>245</v>
       </c>
-      <c t="s" r="F38">
+      <c r="F38" t="s">
         <v>121</v>
       </c>
-      <c t="s" r="G38">
+      <c r="G38" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="H38">
+      <c r="H38" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="I38">
+      <c r="I38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39">
-      <c t="s" r="A39">
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>116</v>
       </c>
       <c r="D39">
         <v>63</v>
       </c>
-      <c t="s" r="F39">
+      <c r="F39" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="G39">
+      <c r="G39" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="H39">
+      <c r="H39" t="s">
         <v>124</v>
       </c>
-      <c t="s" r="I39">
+      <c r="I39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40">
-      <c t="s" r="A40">
+    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>125</v>
       </c>
       <c r="D40">
         <v>32</v>
       </c>
-      <c t="s" r="F40">
+      <c r="F40" t="s">
         <v>126</v>
       </c>
-      <c t="s" r="G40">
+      <c r="G40" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="H40">
+      <c r="H40" t="s">
         <v>127</v>
       </c>
-      <c t="s" r="I40">
+      <c r="I40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41">
-      <c t="s" r="A41">
+    <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>128</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>128</v>
       </c>
       <c r="D41">
         <v>136</v>
       </c>
-      <c t="s" r="F41">
+      <c r="F41" t="s">
         <v>129</v>
       </c>
-      <c t="s" r="G41">
+      <c r="G41" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="H41">
+      <c r="H41" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I41">
+      <c r="I41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42">
-      <c t="s" r="A42">
+    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="B42">
+      <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>131</v>
       </c>
       <c r="D42">
         <v>138</v>
       </c>
-      <c t="s" r="F42">
+      <c r="F42" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="G42">
+      <c r="G42" t="s">
         <v>133</v>
       </c>
-      <c t="s" r="H42">
+      <c r="H42" t="s">
         <v>134</v>
       </c>
-      <c t="s" r="I42">
+      <c r="I42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43">
-      <c t="s" r="A43">
+    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B43">
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="C43">
+      <c r="C43" t="s">
         <v>135</v>
       </c>
       <c r="D43">
         <v>36</v>
       </c>
-      <c t="s" r="F43">
+      <c r="F43" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="G43">
+      <c r="G43" t="s">
         <v>137</v>
       </c>
-      <c t="s" r="H43">
+      <c r="H43" t="s">
         <v>138</v>
       </c>
-      <c t="s" r="I43">
+      <c r="I43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44">
-      <c t="s" r="A44">
+    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B44">
+      <c r="B44" t="s">
         <v>139</v>
       </c>
-      <c t="s" r="C44">
+      <c r="C44" t="s">
         <v>139</v>
       </c>
       <c r="D44">
         <v>122</v>
       </c>
-      <c t="s" r="F44">
+      <c r="F44" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="G44">
+      <c r="G44" t="s">
         <v>141</v>
       </c>
-      <c t="s" r="H44">
+      <c r="H44" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="I44">
+      <c r="I44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45">
-      <c t="s" r="A45">
+    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B45">
+      <c r="B45" t="s">
         <v>141</v>
       </c>
-      <c t="s" r="C45">
+      <c r="C45" t="s">
         <v>141</v>
       </c>
       <c r="D45">
         <v>57</v>
       </c>
-      <c t="s" r="F45">
+      <c r="F45" t="s">
         <v>143</v>
       </c>
-      <c t="s" r="G45">
+      <c r="G45" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="H45">
+      <c r="H45" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="I45">
+      <c r="I45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46">
-      <c t="s" r="A46">
+    <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="B46">
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c t="s" r="C46">
+      <c r="C46" t="s">
         <v>145</v>
       </c>
       <c r="D46">
         <v>150</v>
       </c>
-      <c t="s" r="F46">
+      <c r="F46" t="s">
         <v>146</v>
       </c>
-      <c t="s" r="G46">
+      <c r="G46" t="s">
         <v>147</v>
       </c>
-      <c t="s" r="H46">
+      <c r="H46" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="I46">
+      <c r="I46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47">
-      <c t="s" r="A47">
+    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="B47">
+      <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c t="s" r="C47">
+      <c r="C47" t="s">
         <v>148</v>
       </c>
       <c r="D47">
         <v>840</v>
       </c>
-      <c t="s" r="F47">
+      <c r="F47" t="s">
         <v>149</v>
       </c>
-      <c t="s" r="G47">
+      <c r="G47" t="s">
         <v>141</v>
       </c>
-      <c t="s" r="H47">
+      <c r="H47" t="s">
         <v>150</v>
       </c>
-      <c t="s" r="I47">
+      <c r="I47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48">
-      <c t="s" r="A48">
-        <v>9</v>
-      </c>
-      <c t="s" r="B48">
+    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
         <v>152</v>
       </c>
-      <c t="s" r="C48">
+      <c r="C48" t="s">
         <v>152</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
-      <c t="s" r="F48">
+      <c r="F48" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="G48">
+      <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="H48">
+      <c r="H48" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I48">
+      <c r="I48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49">
-      <c t="s" r="A49">
-        <v>9</v>
-      </c>
-      <c t="s" r="B49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
         <v>155</v>
       </c>
-      <c t="s" r="C49">
+      <c r="C49" t="s">
         <v>155</v>
       </c>
       <c r="D49">
         <v>67</v>
       </c>
-      <c t="s" r="F49">
+      <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="G49">
+      <c r="G49" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H49">
+      <c r="H49" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I49">
+      <c r="I49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50">
-      <c t="s" r="A50">
-        <v>9</v>
-      </c>
-      <c t="s" r="B50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c t="s" r="C50">
+      <c r="C50" t="s">
         <v>158</v>
       </c>
       <c r="D50">
         <v>43</v>
       </c>
-      <c t="s" r="F50">
+      <c r="F50" t="s">
         <v>159</v>
       </c>
-      <c t="s" r="G50">
+      <c r="G50" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H50">
+      <c r="H50" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I50">
+      <c r="I50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51">
-      <c t="s" r="A51">
-        <v>9</v>
-      </c>
-      <c t="s" r="B51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
         <v>160</v>
       </c>
-      <c t="s" r="C51">
+      <c r="C51" t="s">
         <v>160</v>
       </c>
       <c r="D51">
         <v>45</v>
       </c>
-      <c t="s" r="F51">
+      <c r="F51" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="G51">
+      <c r="G51" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="H51">
-        <v>163</v>
-      </c>
-      <c t="s" r="I51">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52">
-      <c t="s" r="A52">
-        <v>9</v>
-      </c>
-      <c t="s" r="B52">
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="C52">
+      <c r="C52" t="s">
         <v>164</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
-      <c t="s" r="F52">
+      <c r="F52" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="G52">
+      <c r="G52" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H52">
-        <v>163</v>
-      </c>
-      <c t="s" r="I52">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53">
-      <c t="s" r="A53">
-        <v>9</v>
-      </c>
-      <c t="s" r="B53">
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
         <v>166</v>
       </c>
-      <c t="s" r="C53">
+      <c r="C53" t="s">
         <v>166</v>
       </c>
       <c r="D53">
         <v>31</v>
       </c>
-      <c t="s" r="F53">
+      <c r="F53" t="s">
         <v>167</v>
       </c>
-      <c t="s" r="G53">
+      <c r="G53" t="s">
         <v>168</v>
       </c>
-      <c t="s" r="H53">
-        <v>163</v>
-      </c>
-      <c t="s" r="I53">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54">
-      <c t="s" r="A54">
-        <v>9</v>
-      </c>
-      <c t="s" r="B54">
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
         <v>169</v>
       </c>
-      <c t="s" r="C54">
+      <c r="C54" t="s">
         <v>169</v>
       </c>
       <c r="D54">
         <v>47</v>
       </c>
-      <c t="s" r="F54">
+      <c r="F54" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="G54">
+      <c r="G54" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H54">
+      <c r="H54" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I54">
+      <c r="I54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55">
-      <c t="s" r="A55">
-        <v>9</v>
-      </c>
-      <c t="s" r="B55">
+    <row r="55" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
         <v>171</v>
       </c>
-      <c t="s" r="C55">
+      <c r="C55" t="s">
         <v>171</v>
       </c>
       <c r="D55">
         <v>90</v>
       </c>
-      <c t="s" r="F55">
+      <c r="F55" t="s">
         <v>172</v>
       </c>
-      <c t="s" r="G55">
+      <c r="G55" t="s">
         <v>173</v>
       </c>
-      <c t="s" r="H55">
-        <v>163</v>
-      </c>
-      <c t="s" r="I55">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56">
-      <c t="s" r="A56">
-        <v>9</v>
-      </c>
-      <c t="s" r="B56">
+      <c r="H55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
         <v>174</v>
       </c>
-      <c t="s" r="C56">
+      <c r="C56" t="s">
         <v>174</v>
       </c>
       <c r="D56">
         <v>44</v>
       </c>
-      <c t="s" r="F56">
+      <c r="F56" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="G56">
+      <c r="G56" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H56">
-        <v>163</v>
-      </c>
-      <c t="s" r="I56">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57">
-      <c t="s" r="A57">
-        <v>9</v>
-      </c>
-      <c t="s" r="B57">
+      <c r="H56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
         <v>175</v>
       </c>
-      <c t="s" r="C57">
+      <c r="C57" t="s">
         <v>175</v>
       </c>
       <c r="D57">
         <v>122</v>
       </c>
-      <c t="s" r="F57">
+      <c r="F57" t="s">
         <v>176</v>
       </c>
-      <c t="s" r="G57">
+      <c r="G57" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H57">
-        <v>163</v>
-      </c>
-      <c t="s" r="I57">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58">
-      <c t="s" r="A58">
-        <v>9</v>
-      </c>
-      <c t="s" r="B58">
+      <c r="H57" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c t="s" r="C58">
+      <c r="C58" t="s">
         <v>177</v>
       </c>
       <c r="D58">
         <v>45</v>
       </c>
-      <c t="s" r="F58">
+      <c r="F58" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="G58">
+      <c r="G58" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="H58">
-        <v>163</v>
-      </c>
-      <c t="s" r="I58">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59">
-      <c t="s" r="A59">
-        <v>9</v>
-      </c>
-      <c t="s" r="B59">
+      <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
         <v>178</v>
       </c>
-      <c t="s" r="C59">
+      <c r="C59" t="s">
         <v>178</v>
       </c>
       <c r="D59">
         <v>44</v>
       </c>
-      <c t="s" r="F59">
+      <c r="F59" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="G59">
+      <c r="G59" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="H59">
-        <v>163</v>
-      </c>
-      <c t="s" r="I59">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60">
-      <c t="s" r="A60">
-        <v>9</v>
-      </c>
-      <c t="s" r="B60">
+      <c r="H59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
         <v>180</v>
       </c>
-      <c t="s" r="C60">
+      <c r="C60" t="s">
         <v>180</v>
       </c>
       <c r="D60">
         <v>50</v>
       </c>
-      <c t="s" r="F60">
+      <c r="F60" t="s">
         <v>181</v>
       </c>
-      <c t="s" r="G60">
+      <c r="G60" t="s">
         <v>182</v>
       </c>
-      <c t="s" r="H60">
-        <v>163</v>
-      </c>
-      <c t="s" r="I60">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61">
-      <c t="s" r="A61">
-        <v>9</v>
-      </c>
-      <c t="s" r="B61">
+      <c r="H60" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
         <v>183</v>
       </c>
-      <c t="s" r="C61">
+      <c r="C61" t="s">
         <v>183</v>
       </c>
       <c r="D61">
         <v>70</v>
       </c>
-      <c t="s" r="F61">
+      <c r="F61" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="G61">
+      <c r="G61" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H61">
+      <c r="H61" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="I61">
+      <c r="I61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62">
-      <c t="s" r="A62">
-        <v>9</v>
-      </c>
-      <c t="s" r="B62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
         <v>184</v>
       </c>
-      <c t="s" r="C62">
+      <c r="C62" t="s">
         <v>184</v>
       </c>
       <c r="D62">
         <v>45</v>
       </c>
-      <c t="s" r="F62">
+      <c r="F62" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="G62">
+      <c r="G62" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="H62">
-        <v>163</v>
-      </c>
-      <c t="s" r="I62">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63">
-      <c t="s" r="A63">
-        <v>9</v>
-      </c>
-      <c t="s" r="B63">
+      <c r="H62" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
         <v>147</v>
       </c>
-      <c t="s" r="C63">
+      <c r="C63" t="s">
         <v>147</v>
       </c>
       <c r="D63">
         <v>343</v>
       </c>
-      <c t="s" r="F63">
+      <c r="F63" t="s">
         <v>185</v>
       </c>
-      <c t="s" r="H63">
+      <c r="H63" t="s">
         <v>186</v>
       </c>
-      <c t="s" r="I63">
+      <c r="I63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64">
-      <c t="s" r="A64">
-        <v>9</v>
-      </c>
-      <c t="s" r="B64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
         <v>187</v>
       </c>
-      <c t="s" r="C64">
+      <c r="C64" t="s">
         <v>187</v>
       </c>
       <c r="D64">
         <v>27</v>
       </c>
-      <c t="s" r="F64">
+      <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c t="s" r="G64">
+      <c r="G64" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H64">
-        <v>163</v>
-      </c>
-      <c t="s" r="I64">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65">
-      <c t="s" r="A65">
-        <v>9</v>
-      </c>
-      <c t="s" r="B65">
+      <c r="H64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="C65">
+      <c r="C65" t="s">
         <v>189</v>
       </c>
       <c r="D65">
         <v>45</v>
       </c>
-      <c t="s" r="F65">
+      <c r="F65" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="G65">
+      <c r="G65" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="H65">
-        <v>163</v>
-      </c>
-      <c t="s" r="I65">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66">
-      <c t="s" r="A66">
-        <v>9</v>
-      </c>
-      <c t="s" r="B66">
+      <c r="H65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
         <v>190</v>
       </c>
-      <c t="s" r="C66">
+      <c r="C66" t="s">
         <v>190</v>
       </c>
       <c r="D66">
         <v>30</v>
       </c>
-      <c t="s" r="F66">
+      <c r="F66" t="s">
         <v>191</v>
       </c>
-      <c t="s" r="G66">
+      <c r="G66" t="s">
         <v>192</v>
       </c>
-      <c t="s" r="H66">
+      <c r="H66" t="s">
         <v>193</v>
       </c>
-      <c t="s" r="I66">
+      <c r="I66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="67">
-      <c t="s" r="A67">
-        <v>9</v>
-      </c>
-      <c t="s" r="B67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
         <v>194</v>
       </c>
-      <c t="s" r="C67">
+      <c r="C67" t="s">
         <v>194</v>
       </c>
       <c r="D67">
         <v>15</v>
       </c>
-      <c t="s" r="F67">
+      <c r="F67" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="G67">
+      <c r="G67" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H67">
-        <v>163</v>
-      </c>
-      <c t="s" r="I67">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68">
-      <c t="s" r="A68">
-        <v>9</v>
-      </c>
-      <c t="s" r="B68">
+      <c r="H67" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
         <v>195</v>
       </c>
-      <c t="s" r="C68">
+      <c r="C68" t="s">
         <v>195</v>
       </c>
       <c r="D68">
         <v>43</v>
       </c>
-      <c t="s" r="F68">
+      <c r="F68" t="s">
         <v>196</v>
       </c>
-      <c t="s" r="G68">
+      <c r="G68" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="H68">
-        <v>163</v>
-      </c>
-      <c t="s" r="I68">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69">
-      <c t="s" r="A69">
-        <v>9</v>
-      </c>
-      <c t="s" r="B69">
+      <c r="H68" t="s">
+        <v>163</v>
+      </c>
+      <c r="I68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
         <v>197</v>
       </c>
-      <c t="s" r="C69">
+      <c r="C69" t="s">
         <v>197</v>
       </c>
       <c r="D69">
         <v>18</v>
       </c>
-      <c t="s" r="F69">
+      <c r="F69" t="s">
         <v>191</v>
       </c>
-      <c t="s" r="G69">
+      <c r="G69" t="s">
         <v>192</v>
       </c>
-      <c t="s" r="H69">
+      <c r="H69" t="s">
         <v>193</v>
       </c>
-      <c t="s" r="I69">
+      <c r="I69" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70">
-      <c t="s" r="A70">
-        <v>9</v>
-      </c>
-      <c t="s" r="B70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
         <v>198</v>
       </c>
-      <c t="s" r="C70">
+      <c r="C70" t="s">
         <v>198</v>
       </c>
       <c r="D70">
         <v>30</v>
       </c>
-      <c t="s" r="F70">
+      <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c t="s" r="G70">
+      <c r="G70" t="s">
         <v>188</v>
       </c>
-      <c t="s" r="H70">
-        <v>163</v>
-      </c>
-      <c t="s" r="I70">
-        <v>163</v>
+      <c r="H70" t="s">
+        <v>163</v>
+      </c>
+      <c r="I70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71">
+        <f>124 + 37</f>
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <f>158+31</f>
+        <v>189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" t="s">
+        <v>120</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73">
+        <f xml:space="preserve"> 53 + 178</f>
+        <v>231</v>
+      </c>
+      <c r="F73" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>